--- a/artfynd/A 36428-2021.xlsx
+++ b/artfynd/A 36428-2021.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY33"/>
+  <dimension ref="A1:AY34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4605,6 +4605,120 @@
       </c>
       <c r="AY33" t="inlineStr"/>
     </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>112269372</v>
+      </c>
+      <c r="B34" t="n">
+        <v>90844</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Ovaliderad</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>5449</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Svart taggsvamp</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Phellodon niger</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Fr.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>fruktkroppar</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>800 m V Axtorp, Vg</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>447837</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6430211</v>
+      </c>
+      <c r="S34" t="n">
+        <v>25</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Jönköping</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Habo</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Västergötland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Gustav Adolf</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2023-09-22</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Niklas Johansson</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Niklas Johansson</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 36428-2021.xlsx
+++ b/artfynd/A 36428-2021.xlsx
@@ -4610,7 +4610,7 @@
         <v>112269372</v>
       </c>
       <c r="B34" t="n">
-        <v>90844</v>
+        <v>90858</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
